--- a/docs/dataview/奇异链交易数移动平均趋势.xlsx
+++ b/docs/dataview/奇异链交易数移动平均趋势.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27105" windowHeight="12675"/>
+    <workbookView windowWidth="22650" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="交易数" sheetId="1" r:id="rId1"/>
+    <sheet name="9.24至10.24" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$I$5</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">交易数!$I$5</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>铸造数</t>
   </si>
@@ -37,19 +38,37 @@
   <si>
     <t>奇异链交易数（以藏品铸造数和转移次数计算）</t>
   </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>首发</t>
+  </si>
+  <si>
+    <t>寄售</t>
+  </si>
+  <si>
+    <t>空投</t>
+  </si>
+  <si>
+    <t>C2C转赠</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,8 +77,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,14 +112,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -94,39 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,38 +206,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,10 +219,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,6 +233,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -223,19 +278,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +320,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,139 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,15 +435,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,17 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,158 +512,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -778,7 +806,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>交易数!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -887,7 +915,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$28</c:f>
+              <c:f>交易数!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
@@ -977,7 +1005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$28</c:f>
+              <c:f>交易数!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="27"/>
@@ -1352,7 +1380,461 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>月数据</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.848472222222222"/>
+          <c:y val="0.0243055555555556"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr/>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0166804248856407"/>
+                  <c:y val="-0.0541539682175953"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.252258888888889"/>
+                      <c:h val="0.114351851851852"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.113442964960492"/>
+                  <c:y val="0.0394369148421581"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.229481111111111"/>
+                      <c:h val="0.101157407407407"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.270262671243046"/>
+                  <c:y val="-0.0870194395740372"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.313092222222222"/>
+                      <c:h val="0.114351851851852"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.145863856726004"/>
+                  <c:y val="-0.00208806168909308"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.291981111111111"/>
+                      <c:h val="0.114351851851852"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9.24至10.24'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>首发</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>寄售</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>空投</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C2C转赠</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.24至10.24'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1908,6 +2390,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1931,6 +2932,41 @@
       <xdr:xfrm>
         <a:off x="4965700" y="1479550"/>
         <a:ext cx="13732510" cy="7350760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2755900" y="793750"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2203,14 +3239,14 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+    <sheetView topLeftCell="D14" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2223,371 +3259,371 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>502</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>21</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>44826</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>244</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>88</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>44827</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>526</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>44828</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>21</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>44830</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>262</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>11804</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>44832</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>6034</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>3122</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>6729</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>44833</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>4927</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1691</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>1748</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>44834</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>1721</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1610</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>1238</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>44835</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>1425</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>3050</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>3655</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>44836</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>3354</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>3054</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1601</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>44837</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>2329</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>519</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1405</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>44838</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>963</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>2150</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1509</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>44839</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>1831</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>988</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>1336</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>44840</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>1163</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>301</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>159</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>44841</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>13989</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>2152</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>44842</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>8072</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>3500</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1859</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>44843</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>2681</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>508</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>1403</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>44844</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>14760</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>5204</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>44845</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>9983</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>24389</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>3838</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>44846</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>14115</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>1125</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>1826</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>44847</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>1477</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>8976</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>5900</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>44848</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>7439</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>7076</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>44849</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>3543</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>4004</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>2665</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>44850</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>3336</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>3209</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>4741</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>44851</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>3976</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>6709</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>2928</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>44852</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>4820</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>21830</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>6680</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>44853</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>14256</v>
       </c>
     </row>
@@ -2598,11 +3634,75 @@
       <c r="B28">
         <v>1527</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>44854</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>5190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>113376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9">
+        <f>SUM(B2:B5)</f>
+        <v>131576</v>
       </c>
     </row>
   </sheetData>
